--- a/outcome/simulate data/B_HFMD.xlsx
+++ b/outcome/simulate data/B_HFMD.xlsx
@@ -412,25 +412,25 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>348044.07123854</v>
+        <v>316574.56077218</v>
       </c>
       <c r="C2" t="n">
-        <v>-45929.7998799211</v>
+        <v>45907.0028779377</v>
       </c>
       <c r="D2" t="n">
-        <v>-250211.631189894</v>
+        <v>-103740.276376391</v>
       </c>
       <c r="E2" t="n">
-        <v>725865.330625696</v>
+        <v>611287.882231092</v>
       </c>
       <c r="F2" t="n">
-        <v>930147.161935669</v>
+        <v>760935.161485421</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
       </c>
       <c r="H2" t="n">
-        <v>124205.390874616</v>
+        <v>125617.909086157</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -442,25 +442,25 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>270186.420158027</v>
+        <v>271160.897242835</v>
       </c>
       <c r="C3" t="n">
-        <v>-149841.354173458</v>
+        <v>-33348.3010637033</v>
       </c>
       <c r="D3" t="n">
-        <v>-356006.000192757</v>
+        <v>-185469.240270284</v>
       </c>
       <c r="E3" t="n">
-        <v>629067.219632444</v>
+        <v>541378.288054398</v>
       </c>
       <c r="F3" t="n">
-        <v>835231.865651742</v>
+        <v>693499.227260979</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
       </c>
       <c r="H3" t="n">
-        <v>189353.701081102</v>
+        <v>192003.55510423</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -472,25 +472,25 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>181373.792277605</v>
+        <v>171191.872924857</v>
       </c>
       <c r="C4" t="n">
-        <v>-271276.038716248</v>
+        <v>-164679.977961761</v>
       </c>
       <c r="D4" t="n">
-        <v>-479306.459407956</v>
+        <v>-319234.991151115</v>
       </c>
       <c r="E4" t="n">
-        <v>514681.599597997</v>
+        <v>419242.761568485</v>
       </c>
       <c r="F4" t="n">
-        <v>722712.020289704</v>
+        <v>573797.774757839</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
       </c>
       <c r="H4" t="n">
-        <v>232380.479302437</v>
+        <v>233685.508557767</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -502,25 +502,25 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>185407.908538435</v>
+        <v>176033.576692995</v>
       </c>
       <c r="C5" t="n">
-        <v>-254554.06623039</v>
+        <v>-153702.402096385</v>
       </c>
       <c r="D5" t="n">
-        <v>-464433.676002458</v>
+        <v>-310653.745062383</v>
       </c>
       <c r="E5" t="n">
-        <v>538389.974733829</v>
+        <v>439273.886840776</v>
       </c>
       <c r="F5" t="n">
-        <v>748269.584505897</v>
+        <v>596225.229806775</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
       </c>
       <c r="H5" t="n">
-        <v>210622.084255915</v>
+        <v>206697.025298058</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -532,25 +532,25 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>186097.406882401</v>
+        <v>166785.824254033</v>
       </c>
       <c r="C6" t="n">
-        <v>-253543.642042444</v>
+        <v>-165730.28383758</v>
       </c>
       <c r="D6" t="n">
-        <v>-465256.289900294</v>
+        <v>-325041.915602808</v>
       </c>
       <c r="E6" t="n">
-        <v>546325.781661718</v>
+        <v>436163.388452525</v>
       </c>
       <c r="F6" t="n">
-        <v>758038.429519567</v>
+        <v>595475.020217753</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
       </c>
       <c r="H6" t="n">
-        <v>147590.136924623</v>
+        <v>145665.853084515</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -562,25 +562,25 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>173284.398166235</v>
+        <v>138140.787402202</v>
       </c>
       <c r="C7" t="n">
-        <v>-288034.535948254</v>
+        <v>-202759.242557941</v>
       </c>
       <c r="D7" t="n">
-        <v>-501564.486840133</v>
+        <v>-364396.701002971</v>
       </c>
       <c r="E7" t="n">
-        <v>518700.822055218</v>
+        <v>407921.612098604</v>
       </c>
       <c r="F7" t="n">
-        <v>732230.772947096</v>
+        <v>569559.070543634</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
       </c>
       <c r="H7" t="n">
-        <v>111292.626783093</v>
+        <v>111052.033489462</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -592,25 +592,25 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>144750.127820429</v>
+        <v>104359.924795469</v>
       </c>
       <c r="C8" t="n">
-        <v>-330876.795761883</v>
+        <v>-245805.931274792</v>
       </c>
       <c r="D8" t="n">
-        <v>-546208.713026357</v>
+        <v>-409736.221122148</v>
       </c>
       <c r="E8" t="n">
-        <v>482666.55325472</v>
+        <v>373537.446622501</v>
       </c>
       <c r="F8" t="n">
-        <v>697998.470519195</v>
+        <v>537467.736469856</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
       </c>
       <c r="H8" t="n">
-        <v>79017.1246468534</v>
+        <v>78572.0292530649</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -622,25 +622,25 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>107220.268723249</v>
+        <v>64839.8499536804</v>
       </c>
       <c r="C9" t="n">
-        <v>-378735.740168058</v>
+        <v>-301259.435569994</v>
       </c>
       <c r="D9" t="n">
-        <v>-595854.669001315</v>
+        <v>-467450.927188269</v>
       </c>
       <c r="E9" t="n">
-        <v>441559.09926793</v>
+        <v>326626.965976025</v>
       </c>
       <c r="F9" t="n">
-        <v>658678.028101187</v>
+        <v>492818.4575943</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
       </c>
       <c r="H9" t="n">
-        <v>57294.6693006207</v>
+        <v>56952.5542329994</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -652,25 +652,25 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>90830.824363016</v>
+        <v>43104.3012603814</v>
       </c>
       <c r="C10" t="n">
-        <v>-407468.051512726</v>
+        <v>-336213.768943568</v>
       </c>
       <c r="D10" t="n">
-        <v>-626359.403380741</v>
+        <v>-504636.106663885</v>
       </c>
       <c r="E10" t="n">
-        <v>419523.161549102</v>
+        <v>311011.970401045</v>
       </c>
       <c r="F10" t="n">
-        <v>638414.513417117</v>
+        <v>468523.307524476</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
       </c>
       <c r="H10" t="n">
-        <v>49208.4333563976</v>
+        <v>49061.1502419601</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -682,25 +682,25 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>132069.410081862</v>
+        <v>82466.0954568289</v>
       </c>
       <c r="C11" t="n">
-        <v>-358520.938015838</v>
+        <v>-298909.082631069</v>
       </c>
       <c r="D11" t="n">
-        <v>-579170.475943099</v>
+        <v>-469533.10145622</v>
       </c>
       <c r="E11" t="n">
-        <v>475112.860097959</v>
+        <v>345723.805336005</v>
       </c>
       <c r="F11" t="n">
-        <v>695762.39802522</v>
+        <v>516347.824161156</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
       </c>
       <c r="H11" t="n">
-        <v>58662.9139756098</v>
+        <v>58810.1370845476</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -712,25 +712,25 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>241833.949364348</v>
+        <v>181464.820103586</v>
       </c>
       <c r="C12" t="n">
-        <v>-228765.504981549</v>
+        <v>-182622.815856783</v>
       </c>
       <c r="D12" t="n">
-        <v>-451159.329653953</v>
+        <v>-355420.465600391</v>
       </c>
       <c r="E12" t="n">
-        <v>611458.365325524</v>
+        <v>470222.245202846</v>
       </c>
       <c r="F12" t="n">
-        <v>833852.189997928</v>
+        <v>643019.894946454</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
       </c>
       <c r="H12" t="n">
-        <v>83252.4402024361</v>
+        <v>83828.4627309049</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -742,25 +742,25 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>339903.00498294</v>
+        <v>295577.564571975</v>
       </c>
       <c r="C13" t="n">
-        <v>-99668.559754311</v>
+        <v>-33961.0382116772</v>
       </c>
       <c r="D13" t="n">
-        <v>-323793.096379212</v>
+        <v>-208905.314236313</v>
       </c>
       <c r="E13" t="n">
-        <v>747094.095958586</v>
+        <v>626994.16999167</v>
       </c>
       <c r="F13" t="n">
-        <v>971218.632583487</v>
+        <v>801938.446016306</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
       </c>
       <c r="H13" t="n">
-        <v>115597.307893058</v>
+        <v>116230.679454612</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -772,25 +772,25 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>341768.278905912</v>
+        <v>315111.384688705</v>
       </c>
       <c r="C14" t="n">
-        <v>-86657.901338024</v>
+        <v>-5886.07750002784</v>
       </c>
       <c r="D14" t="n">
-        <v>-312499.887209192</v>
+        <v>-182950.957334096</v>
       </c>
       <c r="E14" t="n">
-        <v>766593.432083799</v>
+        <v>663080.962609058</v>
       </c>
       <c r="F14" t="n">
-        <v>992435.417954967</v>
+        <v>840145.842443126</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
       </c>
       <c r="H14" t="n">
-        <v>147958.769798796</v>
+        <v>148257.304225493</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -802,25 +802,25 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>270697.540153607</v>
+        <v>269015.898374022</v>
       </c>
       <c r="C15" t="n">
-        <v>-190232.586283525</v>
+        <v>-84427.0304369251</v>
       </c>
       <c r="D15" t="n">
-        <v>-417779.059003141</v>
+        <v>-263587.415643929</v>
       </c>
       <c r="E15" t="n">
-        <v>669458.45174251</v>
+        <v>592457.01742762</v>
       </c>
       <c r="F15" t="n">
-        <v>897004.924462127</v>
+        <v>771617.402634624</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
       </c>
       <c r="H15" t="n">
-        <v>163714.885871436</v>
+        <v>163134.337832296</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -832,25 +832,25 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>185051.415585586</v>
+        <v>169167.889649248</v>
       </c>
       <c r="C16" t="n">
-        <v>-311338.650526892</v>
+        <v>-215073.368553009</v>
       </c>
       <c r="D16" t="n">
-        <v>-540576.9368406</v>
+        <v>-396305.031306489</v>
       </c>
       <c r="E16" t="n">
-        <v>554744.21140864</v>
+        <v>469636.152159733</v>
       </c>
       <c r="F16" t="n">
-        <v>783982.497722349</v>
+        <v>650867.814913213</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
       </c>
       <c r="H16" t="n">
-        <v>160779.33795649</v>
+        <v>160452.896133292</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -862,25 +862,25 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>191684.16631562</v>
+        <v>175173.771964681</v>
       </c>
       <c r="C17" t="n">
-        <v>-294295.974519074</v>
+        <v>-203437.538638719</v>
       </c>
       <c r="D17" t="n">
-        <v>-525213.67972366</v>
+        <v>-386717.072524149</v>
       </c>
       <c r="E17" t="n">
-        <v>578131.883022513</v>
+        <v>489009.023383111</v>
       </c>
       <c r="F17" t="n">
-        <v>809049.588227099</v>
+        <v>672288.557268541</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
       </c>
       <c r="H17" t="n">
-        <v>147303.469103065</v>
+        <v>146559.400732526</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -892,25 +892,25 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>190761.448568247</v>
+        <v>167082.033472858</v>
       </c>
       <c r="C18" t="n">
-        <v>-292972.449810155</v>
+        <v>-214832.499525636</v>
       </c>
       <c r="D18" t="n">
-        <v>-525557.447696645</v>
+        <v>-400137.274148767</v>
       </c>
       <c r="E18" t="n">
-        <v>585754.589429428</v>
+        <v>485265.604140581</v>
       </c>
       <c r="F18" t="n">
-        <v>818339.587315918</v>
+        <v>670570.378763713</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
       </c>
       <c r="H18" t="n">
-        <v>124753.254993413</v>
+        <v>123906.735687123</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -922,25 +922,25 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>171653.552731061</v>
+        <v>139734.918000323</v>
       </c>
       <c r="C19" t="n">
-        <v>-327157.549607654</v>
+        <v>-251252.274733646</v>
       </c>
       <c r="D19" t="n">
-        <v>-561397.972905523</v>
+        <v>-438560.393764826</v>
       </c>
       <c r="E19" t="n">
-        <v>557823.835714617</v>
+        <v>456414.64427431</v>
       </c>
       <c r="F19" t="n">
-        <v>792064.259012487</v>
+        <v>643722.76330549</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
       </c>
       <c r="H19" t="n">
-        <v>101861.415928558</v>
+        <v>102205.400193612</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -952,25 +952,25 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>144559.004443292</v>
+        <v>106974.933974827</v>
       </c>
       <c r="C20" t="n">
-        <v>-369701.041130292</v>
+        <v>-293712.059646863</v>
       </c>
       <c r="D20" t="n">
-        <v>-605585.272421134</v>
+        <v>-483002.321973978</v>
       </c>
       <c r="E20" t="n">
-        <v>521490.798623129</v>
+        <v>421443.574994572</v>
       </c>
       <c r="F20" t="n">
-        <v>757375.029913971</v>
+        <v>610733.837321686</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
       </c>
       <c r="H20" t="n">
-        <v>78644.7741717624</v>
+        <v>78586.0956133797</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -982,25 +982,25 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>110111.33357969</v>
+        <v>68129.9984107148</v>
       </c>
       <c r="C21" t="n">
-        <v>-417267.977365565</v>
+        <v>-348599.605318164</v>
       </c>
       <c r="D21" t="n">
-        <v>-654784.640436976</v>
+        <v>-539851.469018199</v>
       </c>
       <c r="E21" t="n">
-        <v>480091.336465437</v>
+        <v>373967.135724194</v>
       </c>
       <c r="F21" t="n">
-        <v>717607.999536848</v>
+        <v>565218.99942423</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
       </c>
       <c r="H21" t="n">
-        <v>62975.9858369029</v>
+        <v>62561.4926867036</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -1012,25 +1012,25 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>95137.1477247679</v>
+        <v>46358.2981966091</v>
       </c>
       <c r="C22" t="n">
-        <v>-445714.788855898</v>
+        <v>-383007.700691427</v>
       </c>
       <c r="D22" t="n">
-        <v>-684852.740468527</v>
+        <v>-576201.249563035</v>
       </c>
       <c r="E22" t="n">
-        <v>457769.898892273</v>
+        <v>346894.901552019</v>
       </c>
       <c r="F22" t="n">
-        <v>696907.850504903</v>
+        <v>540088.450423626</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
       </c>
       <c r="H22" t="n">
-        <v>59443.2900559595</v>
+        <v>58910.9597388615</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -1042,25 +1042,25 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>139623.782256042</v>
+        <v>84913.8279944122</v>
       </c>
       <c r="C23" t="n">
-        <v>-396488.444988756</v>
+        <v>-345175.370969237</v>
       </c>
       <c r="D23" t="n">
-        <v>-637236.767031487</v>
+        <v>-540291.28339689</v>
       </c>
       <c r="E23" t="n">
-        <v>513080.367070877</v>
+        <v>391990.093674173</v>
       </c>
       <c r="F23" t="n">
-        <v>753828.689113608</v>
+        <v>587106.006101826</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
       </c>
       <c r="H23" t="n">
-        <v>68840.7806618364</v>
+        <v>68482.0819148656</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -1072,25 +1072,25 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>256488.227497867</v>
+        <v>182772.777054371</v>
       </c>
       <c r="C24" t="n">
-        <v>-266459.824358172</v>
+        <v>-228379.01784809</v>
       </c>
       <c r="D24" t="n">
-        <v>-508807.816368209</v>
+        <v>-425398.537793055</v>
       </c>
       <c r="E24" t="n">
-        <v>649152.684702147</v>
+        <v>515978.447194154</v>
       </c>
       <c r="F24" t="n">
-        <v>891500.676712184</v>
+        <v>712997.967139119</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
       </c>
       <c r="H24" t="n">
-        <v>88144.1618736157</v>
+        <v>88143.7182105754</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -1102,25 +1102,25 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>358071.034137792</v>
+        <v>296177.86275514</v>
       </c>
       <c r="C25" t="n">
-        <v>-137095.518939202</v>
+        <v>-79223.7531021549</v>
       </c>
       <c r="D25" t="n">
-        <v>-381032.690965532</v>
+        <v>-278128.663037063</v>
       </c>
       <c r="E25" t="n">
-        <v>784521.055143477</v>
+        <v>672256.884882148</v>
       </c>
       <c r="F25" t="n">
-        <v>1028458.22716981</v>
+        <v>871161.794817056</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
       </c>
       <c r="H25" t="n">
-        <v>112306.843358752</v>
+        <v>111593.124083445</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -1132,25 +1132,25 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>353514.057382008</v>
+        <v>315314.690303117</v>
       </c>
       <c r="C26" t="n">
-        <v>-123823.12298631</v>
+        <v>-50671.0186858298</v>
       </c>
       <c r="D26" t="n">
-        <v>-369339.188776535</v>
+        <v>-251443.614308546</v>
       </c>
       <c r="E26" t="n">
-        <v>803758.653732085</v>
+        <v>707865.90379486</v>
       </c>
       <c r="F26" t="n">
-        <v>1049274.71952231</v>
+        <v>908638.499417576</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
       </c>
       <c r="H26" t="n">
-        <v>135929.623500806</v>
+        <v>134702.019598419</v>
       </c>
       <c r="I26"/>
       <c r="J26"/>
@@ -1162,25 +1162,25 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>276907.804717258</v>
+        <v>268764.47986199</v>
       </c>
       <c r="C27" t="n">
-        <v>-227141.498255425</v>
+        <v>-128749.090591593</v>
       </c>
       <c r="D27" t="n">
-        <v>-474226.36874736</v>
+        <v>-331372.157170776</v>
       </c>
       <c r="E27" t="n">
-        <v>706367.36371441</v>
+        <v>636779.077582287</v>
       </c>
       <c r="F27" t="n">
-        <v>953452.234206345</v>
+        <v>839402.14416147</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
       </c>
       <c r="H27" t="n">
-        <v>146769.225680858</v>
+        <v>145213.940642239</v>
       </c>
       <c r="I27"/>
       <c r="J27"/>
@@ -1192,25 +1192,25 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>188209.401843131</v>
+        <v>168805.898386924</v>
       </c>
       <c r="C28" t="n">
-        <v>-347996.49522718</v>
+        <v>-258946.678696711</v>
       </c>
       <c r="D28" t="n">
-        <v>-596640.27232792</v>
+        <v>-463403.468916114</v>
       </c>
       <c r="E28" t="n">
-        <v>591402.056108928</v>
+        <v>513509.462303435</v>
       </c>
       <c r="F28" t="n">
-        <v>840045.833209668</v>
+        <v>717966.252522838</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
       </c>
       <c r="H28" t="n">
-        <v>139044.803920806</v>
+        <v>137886.508792904</v>
       </c>
       <c r="I28"/>
       <c r="J28"/>
@@ -1222,25 +1222,25 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>192146.471117025</v>
+        <v>175308.856687732</v>
       </c>
       <c r="C29" t="n">
-        <v>-330707.817667391</v>
+        <v>-246875.521827242</v>
       </c>
       <c r="D29" t="n">
-        <v>-580900.788303716</v>
+        <v>-453149.735008848</v>
       </c>
       <c r="E29" t="n">
-        <v>614543.72617083</v>
+        <v>532447.006571634</v>
       </c>
       <c r="F29" t="n">
-        <v>864736.696807155</v>
+        <v>738721.219753239</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
       </c>
       <c r="H29" t="n">
-        <v>122906.511799959</v>
+        <v>122357.361800297</v>
       </c>
       <c r="I29"/>
       <c r="J29"/>
@@ -1252,25 +1252,25 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>192821.071656092</v>
+        <v>168188.522734817</v>
       </c>
       <c r="C30" t="n">
-        <v>-329143.188684087</v>
+        <v>-257847.919748702</v>
       </c>
       <c r="D30" t="n">
-        <v>-580875.819109178</v>
+        <v>-465923.68234627</v>
       </c>
       <c r="E30" t="n">
-        <v>621925.32830336</v>
+        <v>528281.024363647</v>
       </c>
       <c r="F30" t="n">
-        <v>873657.958728451</v>
+        <v>736356.786961215</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="H30" t="n">
-        <v>106417.264011886</v>
+        <v>106769.223522993</v>
       </c>
       <c r="I30"/>
       <c r="J30"/>
@@ -1282,25 +1282,25 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>179746.769140189</v>
+        <v>141761.203625867</v>
       </c>
       <c r="C31" t="n">
-        <v>-363091.920796872</v>
+        <v>-293857.281536981</v>
       </c>
       <c r="D31" t="n">
-        <v>-616354.851139317</v>
+        <v>-503719.128801863</v>
       </c>
       <c r="E31" t="n">
-        <v>593758.206903836</v>
+        <v>499019.651077645</v>
       </c>
       <c r="F31" t="n">
-        <v>847021.13724628</v>
+        <v>708881.498342527</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
       </c>
       <c r="H31" t="n">
-        <v>89767.4777458305</v>
+        <v>88945.1660132718</v>
       </c>
       <c r="I31"/>
       <c r="J31"/>
@@ -1312,25 +1312,25 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>151513.220886543</v>
+        <v>109809.122475741</v>
       </c>
       <c r="C32" t="n">
-        <v>-405403.62783682</v>
+        <v>-335918.228928148</v>
       </c>
       <c r="D32" t="n">
-        <v>-660187.666878806</v>
+        <v>-547551.087658303</v>
       </c>
       <c r="E32" t="n">
-        <v>557193.385329657</v>
+        <v>463649.744275856</v>
       </c>
       <c r="F32" t="n">
-        <v>811977.424371644</v>
+        <v>675282.603006011</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="H32" t="n">
-        <v>75016.320578593</v>
+        <v>73709.5685239056</v>
       </c>
       <c r="I32"/>
       <c r="J32"/>
@@ -1342,25 +1342,25 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>114258.0563339</v>
+        <v>71435.7567831617</v>
       </c>
       <c r="C33" t="n">
-        <v>-452743.216282272</v>
+        <v>-390417.976691862</v>
       </c>
       <c r="D33" t="n">
-        <v>-709039.33645473</v>
+        <v>-603807.148983164</v>
       </c>
       <c r="E33" t="n">
-        <v>515566.575382144</v>
+        <v>415785.507097893</v>
       </c>
       <c r="F33" t="n">
-        <v>771862.695554601</v>
+        <v>629174.679389195</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
       </c>
       <c r="H33" t="n">
-        <v>66795.2174311686</v>
+        <v>65730.5692245866</v>
       </c>
       <c r="I33"/>
       <c r="J33"/>
@@ -1372,25 +1372,25 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>98514.7333356438</v>
+        <v>49671.6743628929</v>
       </c>
       <c r="C34" t="n">
-        <v>-480966.976652689</v>
+        <v>-424448.811770006</v>
       </c>
       <c r="D34" t="n">
-        <v>-738766.309235923</v>
+        <v>-639579.959696186</v>
       </c>
       <c r="E34" t="n">
-        <v>493022.086689065</v>
+        <v>388336.012630597</v>
       </c>
       <c r="F34" t="n">
-        <v>750821.419272299</v>
+        <v>603467.160556777</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
       </c>
       <c r="H34" t="n">
-        <v>67601.7727430699</v>
+        <v>67189.5984399385</v>
       </c>
       <c r="I34"/>
       <c r="J34"/>
@@ -1402,25 +1402,25 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>140922.876197747</v>
+        <v>87741.7249528172</v>
       </c>
       <c r="C35" t="n">
-        <v>-431521.744433514</v>
+        <v>-386249.288867292</v>
       </c>
       <c r="D35" t="n">
-        <v>-690815.574952613</v>
+        <v>-603108.420021379</v>
       </c>
       <c r="E35" t="n">
-        <v>548113.666515635</v>
+        <v>433064.011572228</v>
       </c>
       <c r="F35" t="n">
-        <v>807407.497034734</v>
+        <v>649923.142726314</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
       </c>
       <c r="H35" t="n">
-        <v>77046.5812829844</v>
+        <v>77406.0710476651</v>
       </c>
       <c r="I35"/>
       <c r="J35"/>
@@ -1432,25 +1432,25 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>251629.823528814</v>
+        <v>184741.140415527</v>
       </c>
       <c r="C36" t="n">
-        <v>-301278.270097312</v>
+        <v>-269095.368180434</v>
       </c>
       <c r="D36" t="n">
-        <v>-562058.033902278</v>
+        <v>-487668.82201638</v>
       </c>
       <c r="E36" t="n">
-        <v>683971.130441287</v>
+        <v>556694.797526497</v>
       </c>
       <c r="F36" t="n">
-        <v>944750.894246253</v>
+        <v>775268.251362443</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
       </c>
       <c r="H36" t="n">
-        <v>91881.8298180521</v>
+        <v>92645.4541895867</v>
       </c>
       <c r="I36"/>
       <c r="J36"/>
@@ -1462,25 +1462,25 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>349287.614621045</v>
+        <v>297259.13034327</v>
       </c>
       <c r="C37" t="n">
-        <v>-171703.022960741</v>
+        <v>-119591.746716066</v>
       </c>
       <c r="D37" t="n">
-        <v>-433960.300981925</v>
+        <v>-339866.181634519</v>
       </c>
       <c r="E37" t="n">
-        <v>819128.559165016</v>
+        <v>712624.878496059</v>
       </c>
       <c r="F37" t="n">
-        <v>1081385.8371862</v>
+        <v>932899.313414512</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
       </c>
       <c r="H37" t="n">
-        <v>108246.95837493</v>
+        <v>107634.979485275</v>
       </c>
       <c r="I37"/>
       <c r="J37"/>
